--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H2">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I2">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J2">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N2">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O2">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P2">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q2">
-        <v>964.243729131437</v>
+        <v>721.4586653955753</v>
       </c>
       <c r="R2">
-        <v>3856.974916525748</v>
+        <v>2885.834661582301</v>
       </c>
       <c r="S2">
-        <v>0.09071683917580868</v>
+        <v>0.1295905846860859</v>
       </c>
       <c r="T2">
-        <v>0.05435016429694762</v>
+        <v>0.08408728063112697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H3">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I3">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J3">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.51982</v>
       </c>
       <c r="O3">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P3">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q3">
-        <v>15.47460745678</v>
+        <v>16.66857488179</v>
       </c>
       <c r="R3">
-        <v>92.84764474068001</v>
+        <v>100.01144929074</v>
       </c>
       <c r="S3">
-        <v>0.001455863733985587</v>
+        <v>0.00299405976866408</v>
       </c>
       <c r="T3">
-        <v>0.001308353011221066</v>
+        <v>0.002914127726993601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H4">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I4">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J4">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N4">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O4">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P4">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q4">
-        <v>146.9618689145733</v>
+        <v>178.4170455689397</v>
       </c>
       <c r="R4">
-        <v>881.77121348744</v>
+        <v>1070.502273413638</v>
       </c>
       <c r="S4">
-        <v>0.01382629290138981</v>
+        <v>0.03204780864412462</v>
       </c>
       <c r="T4">
-        <v>0.01242538812477686</v>
+        <v>0.03119223227828183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H5">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I5">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J5">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N5">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O5">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P5">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q5">
-        <v>37.283447420288</v>
+        <v>57.2570901237855</v>
       </c>
       <c r="R5">
-        <v>149.133789681152</v>
+        <v>229.028360495142</v>
       </c>
       <c r="S5">
-        <v>0.003507657246153529</v>
+        <v>0.01028469147639513</v>
       </c>
       <c r="T5">
-        <v>0.002101503418305399</v>
+        <v>0.006673414897193926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H6">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I6">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J6">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N6">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O6">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P6">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q6">
-        <v>618.7390710105163</v>
+        <v>62.8904549377975</v>
       </c>
       <c r="R6">
-        <v>3712.434426063098</v>
+        <v>377.342729626785</v>
       </c>
       <c r="S6">
-        <v>0.05821147817804386</v>
+        <v>0.01129657348019304</v>
       </c>
       <c r="T6">
-        <v>0.05231338688090918</v>
+        <v>0.01099499026144677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.410387</v>
+        <v>9.0593035</v>
       </c>
       <c r="H7">
-        <v>16.820774</v>
+        <v>18.118607</v>
       </c>
       <c r="I7">
-        <v>0.1877733157930019</v>
+        <v>0.2059870424264786</v>
       </c>
       <c r="J7">
-        <v>0.1405219530469756</v>
+        <v>0.155107484181908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N7">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O7">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P7">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q7">
-        <v>213.1697502024077</v>
+        <v>110.082350856764</v>
       </c>
       <c r="R7">
-        <v>1279.018501214446</v>
+        <v>660.4941051405841</v>
       </c>
       <c r="S7">
-        <v>0.02005518455762043</v>
+        <v>0.01977332437101586</v>
       </c>
       <c r="T7">
-        <v>0.01802315731481548</v>
+        <v>0.01924543838686493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H8">
         <v>20.99428</v>
       </c>
       <c r="I8">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J8">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N8">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O8">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P8">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q8">
-        <v>802.3254592854266</v>
+        <v>557.3094086736734</v>
       </c>
       <c r="R8">
-        <v>4813.95275571256</v>
+        <v>3343.85645204204</v>
       </c>
       <c r="S8">
-        <v>0.07548343583443888</v>
+        <v>0.1001055993713498</v>
       </c>
       <c r="T8">
-        <v>0.06783531883230352</v>
+        <v>0.09743309262177034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H9">
         <v>20.99428</v>
       </c>
       <c r="I9">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J9">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.51982</v>
       </c>
       <c r="O9">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P9">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q9">
-        <v>12.87607184773333</v>
+        <v>12.87607184773334</v>
       </c>
       <c r="R9">
         <v>115.8846466296</v>
       </c>
       <c r="S9">
-        <v>0.001211391377239396</v>
+        <v>0.002312838918211498</v>
       </c>
       <c r="T9">
-        <v>0.001632976547715236</v>
+        <v>0.003376640017428891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H10">
         <v>20.99428</v>
       </c>
       <c r="I10">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J10">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N10">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O10">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P10">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q10">
-        <v>122.2836565196445</v>
+        <v>137.8228621161689</v>
       </c>
       <c r="R10">
-        <v>1100.5529086768</v>
+        <v>1240.40575904552</v>
       </c>
       <c r="S10">
-        <v>0.01150454648257328</v>
+        <v>0.02475615879525295</v>
       </c>
       <c r="T10">
-        <v>0.0155083278213143</v>
+        <v>0.03614287004929721</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H11">
         <v>20.99428</v>
       </c>
       <c r="I11">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J11">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N11">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O11">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P11">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q11">
-        <v>31.02271570090666</v>
+        <v>44.22972038428001</v>
       </c>
       <c r="R11">
-        <v>186.13629420544</v>
+        <v>265.3783223056801</v>
       </c>
       <c r="S11">
-        <v>0.002918642482197949</v>
+        <v>0.007944675973859462</v>
       </c>
       <c r="T11">
-        <v>0.002622920395034181</v>
+        <v>0.007732577946409484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H12">
         <v>20.99428</v>
       </c>
       <c r="I12">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J12">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N12">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O12">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P12">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q12">
-        <v>514.8388258366178</v>
+        <v>48.58135875793334</v>
       </c>
       <c r="R12">
-        <v>4633.54943252956</v>
+        <v>437.2322288214</v>
       </c>
       <c r="S12">
-        <v>0.04843645807990139</v>
+        <v>0.00872633040291111</v>
       </c>
       <c r="T12">
-        <v>0.06529318400723616</v>
+        <v>0.01274004696641893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.998093333333333</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H13">
         <v>20.99428</v>
       </c>
       <c r="I13">
-        <v>0.1562419409985416</v>
+        <v>0.1591200193654833</v>
       </c>
       <c r="J13">
-        <v>0.1753877216598391</v>
+        <v>0.1797251826815686</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N13">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O13">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P13">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q13">
-        <v>177.3737412749022</v>
+        <v>85.03595951370669</v>
       </c>
       <c r="R13">
-        <v>1596.36367147412</v>
+        <v>765.3236356233601</v>
       </c>
       <c r="S13">
-        <v>0.01668746674219071</v>
+        <v>0.01527441590389853</v>
       </c>
       <c r="T13">
-        <v>0.02249499405623571</v>
+        <v>0.02229995508024379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H14">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I14">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J14">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N14">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O14">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P14">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q14">
-        <v>1015.909490052763</v>
+        <v>644.6738598414969</v>
       </c>
       <c r="R14">
-        <v>6095.456940316575</v>
+        <v>3868.043159048981</v>
       </c>
       <c r="S14">
-        <v>0.09557759624665585</v>
+        <v>0.1157982659795048</v>
       </c>
       <c r="T14">
-        <v>0.08589350289827427</v>
+        <v>0.1127068140591001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H15">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I15">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J15">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.51982</v>
       </c>
       <c r="O15">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P15">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q15">
-        <v>16.30376231157333</v>
+        <v>14.89453938599334</v>
       </c>
       <c r="R15">
-        <v>146.73386080416</v>
+        <v>134.05085447394</v>
       </c>
       <c r="S15">
-        <v>0.001533871301306644</v>
+        <v>0.002675402154332</v>
       </c>
       <c r="T15">
-        <v>0.002067685068020924</v>
+        <v>0.003905965913103332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H16">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I16">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J16">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N16">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O16">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P16">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q16">
-        <v>154.8363269530311</v>
+        <v>159.4281293514976</v>
       </c>
       <c r="R16">
-        <v>1393.52694257728</v>
+        <v>1434.853164163478</v>
       </c>
       <c r="S16">
-        <v>0.01456712835812116</v>
+        <v>0.02863696215602516</v>
       </c>
       <c r="T16">
-        <v>0.01963674120793122</v>
+        <v>0.04180866710268182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H17">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I17">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J17">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N17">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O17">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P17">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q17">
-        <v>39.28115569937066</v>
+        <v>51.163221212617</v>
       </c>
       <c r="R17">
-        <v>235.6869341962239</v>
+        <v>306.979327275702</v>
       </c>
       <c r="S17">
-        <v>0.003695603275978339</v>
+        <v>0.009190092335686646</v>
       </c>
       <c r="T17">
-        <v>0.003321158128699264</v>
+        <v>0.008944745582351985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H18">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I18">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J18">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N18">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O18">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P18">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q18">
-        <v>651.8921255233084</v>
+        <v>56.19702732339834</v>
       </c>
       <c r="R18">
-        <v>5867.029129709776</v>
+        <v>505.773245910585</v>
       </c>
       <c r="S18">
-        <v>0.06133054467913782</v>
+        <v>0.01009427979420843</v>
       </c>
       <c r="T18">
-        <v>0.08267463596105945</v>
+        <v>0.01473719109094097</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.861029333333333</v>
+        <v>8.095122333333334</v>
       </c>
       <c r="H19">
-        <v>26.583088</v>
+        <v>24.285367</v>
       </c>
       <c r="I19">
-        <v>0.1978345181094583</v>
+        <v>0.1840638529798531</v>
       </c>
       <c r="J19">
-        <v>0.2220770247421207</v>
+        <v>0.2078991049259102</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N19">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O19">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P19">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q19">
-        <v>224.5917351392836</v>
+        <v>98.36629238952268</v>
       </c>
       <c r="R19">
-        <v>2021.325616253552</v>
+        <v>885.2966315057041</v>
       </c>
       <c r="S19">
-        <v>0.02112977424825853</v>
+        <v>0.01766885056009601</v>
       </c>
       <c r="T19">
-        <v>0.02848330147813552</v>
+        <v>0.02579572117773197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H20">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I20">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J20">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N20">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O20">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P20">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q20">
-        <v>717.4546099794525</v>
+        <v>483.1886971628475</v>
       </c>
       <c r="R20">
-        <v>2869.81843991781</v>
+        <v>1932.75478865139</v>
       </c>
       <c r="S20">
-        <v>0.06749871687324886</v>
+        <v>0.0867918132838682</v>
       </c>
       <c r="T20">
-        <v>0.04043975060445577</v>
+        <v>0.05631649535159935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H21">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I21">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J21">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.51982</v>
       </c>
       <c r="O21">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P21">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q21">
-        <v>11.51402713035</v>
+        <v>11.1635875581</v>
       </c>
       <c r="R21">
-        <v>69.08416278209999</v>
+        <v>66.9815253486</v>
       </c>
       <c r="S21">
-        <v>0.001083249095527672</v>
+        <v>0.002005237317449463</v>
       </c>
       <c r="T21">
-        <v>0.0009734923557414176</v>
+        <v>0.001951703745910547</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H22">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I22">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J22">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N22">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O22">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P22">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q22">
-        <v>109.3483599203</v>
+        <v>119.49277752847</v>
       </c>
       <c r="R22">
-        <v>656.0901595217999</v>
+        <v>716.9566651708201</v>
       </c>
       <c r="S22">
-        <v>0.01028758319223264</v>
+        <v>0.02146365363452711</v>
       </c>
       <c r="T22">
-        <v>0.009245226825519686</v>
+        <v>0.02089064114002996</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H23">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I23">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J23">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N23">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O23">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P23">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q23">
-        <v>27.74109949536</v>
+        <v>38.347281843345</v>
       </c>
       <c r="R23">
-        <v>110.96439798144</v>
+        <v>153.38912737338</v>
       </c>
       <c r="S23">
-        <v>0.002609905343898422</v>
+        <v>0.006888054594890009</v>
       </c>
       <c r="T23">
-        <v>0.001563643371275963</v>
+        <v>0.004469443371415145</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H24">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I24">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J24">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N24">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O24">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P24">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q24">
-        <v>460.3786215656975</v>
+        <v>42.120163556025</v>
       </c>
       <c r="R24">
-        <v>2762.271729394185</v>
+        <v>252.72098133615</v>
       </c>
       <c r="S24">
-        <v>0.04331279749174595</v>
+        <v>0.007565751004329574</v>
       </c>
       <c r="T24">
-        <v>0.03892426722355256</v>
+        <v>0.007363769089714567</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.257827499999999</v>
+        <v>6.067365000000001</v>
       </c>
       <c r="H25">
-        <v>12.515655</v>
+        <v>12.13473</v>
       </c>
       <c r="I25">
-        <v>0.1397145005735921</v>
+        <v>0.1379574678861274</v>
       </c>
       <c r="J25">
-        <v>0.1045566799876239</v>
+        <v>0.1038814651439112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N25">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O25">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P25">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q25">
-        <v>158.6109563073325</v>
+        <v>73.72639659396002</v>
       </c>
       <c r="R25">
-        <v>951.665737843995</v>
+        <v>442.3583795637601</v>
       </c>
       <c r="S25">
-        <v>0.01492224857693854</v>
+        <v>0.01324295805106304</v>
       </c>
       <c r="T25">
-        <v>0.01341029960707854</v>
+        <v>0.01288941244524159</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H26">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I26">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J26">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N26">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O26">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P26">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q26">
-        <v>602.3059135203536</v>
+        <v>468.4368124570567</v>
       </c>
       <c r="R26">
-        <v>3613.835481122122</v>
+        <v>2810.62087474234</v>
       </c>
       <c r="S26">
-        <v>0.05666543327243823</v>
+        <v>0.08414203519409091</v>
       </c>
       <c r="T26">
-        <v>0.05092399001600166</v>
+        <v>0.08189570573408354</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H27">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I27">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J27">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.51982</v>
       </c>
       <c r="O27">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P27">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q27">
-        <v>9.666070205113332</v>
+        <v>10.82276013906667</v>
       </c>
       <c r="R27">
-        <v>86.99463184601998</v>
+        <v>97.4048412516</v>
       </c>
       <c r="S27">
-        <v>0.0009093917956295202</v>
+        <v>0.001944016866953714</v>
       </c>
       <c r="T27">
-        <v>0.001225875883590827</v>
+        <v>0.00283817653526374</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H28">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I28">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J28">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N28">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O28">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P28">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q28">
-        <v>91.79837009568443</v>
+        <v>115.8446299463244</v>
       </c>
       <c r="R28">
-        <v>826.1853308611599</v>
+        <v>1042.60166951692</v>
       </c>
       <c r="S28">
-        <v>0.008636465786583735</v>
+        <v>0.02080836234638081</v>
       </c>
       <c r="T28">
-        <v>0.01164210539188045</v>
+        <v>0.03037926612298765</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H29">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I29">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J29">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N29">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O29">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P29">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q29">
-        <v>23.28876007095466</v>
+        <v>37.17652871138</v>
       </c>
       <c r="R29">
-        <v>139.732560425728</v>
+        <v>223.05917226828</v>
       </c>
       <c r="S29">
-        <v>0.002191025607046294</v>
+        <v>0.006677760380998734</v>
       </c>
       <c r="T29">
-        <v>0.001969026965726905</v>
+        <v>0.006499485041733337</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H30">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I30">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J30">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N30">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O30">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P30">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q30">
-        <v>386.4896292677108</v>
+        <v>40.83422330076667</v>
       </c>
       <c r="R30">
-        <v>3478.406663409397</v>
+        <v>367.5080097069</v>
       </c>
       <c r="S30">
-        <v>0.03636126062544258</v>
+        <v>0.007334766531422965</v>
       </c>
       <c r="T30">
-        <v>0.04901560879690414</v>
+        <v>0.01070842677087643</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.253470333333333</v>
+        <v>5.882126666666667</v>
       </c>
       <c r="H31">
-        <v>15.760411</v>
+        <v>17.64638</v>
       </c>
       <c r="I31">
-        <v>0.1172908623479712</v>
+        <v>0.1337455881950073</v>
       </c>
       <c r="J31">
-        <v>0.1316636044538163</v>
+        <v>0.1510649028768016</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N31">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O31">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P31">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q31">
-        <v>133.1545098522132</v>
+        <v>71.47550929317335</v>
       </c>
       <c r="R31">
-        <v>1198.390588669919</v>
+        <v>643.2795836385601</v>
       </c>
       <c r="S31">
-        <v>0.01252728526083089</v>
+        <v>0.01283864687516013</v>
       </c>
       <c r="T31">
-        <v>0.0168869973997123</v>
+        <v>0.01874384267185692</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H32">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I32">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J32">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>114.649151</v>
+        <v>79.6373215</v>
       </c>
       <c r="N32">
-        <v>229.298302</v>
+        <v>159.274643</v>
       </c>
       <c r="O32">
-        <v>0.4831189074586795</v>
+        <v>0.6291200803678693</v>
       </c>
       <c r="P32">
-        <v>0.3867734764459095</v>
+        <v>0.5421226517510304</v>
       </c>
       <c r="Q32">
-        <v>1032.9085961043</v>
+        <v>627.3793943721754</v>
       </c>
       <c r="R32">
-        <v>6197.4515766258</v>
+        <v>3764.276366233053</v>
       </c>
       <c r="S32">
-        <v>0.09717688605608911</v>
+        <v>0.1126917818529695</v>
       </c>
       <c r="T32">
-        <v>0.08733074979792668</v>
+        <v>0.1096832633533501</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H33">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I33">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J33">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.51982</v>
       </c>
       <c r="O33">
-        <v>0.007753304711253578</v>
+        <v>0.01453518499705013</v>
       </c>
       <c r="P33">
-        <v>0.009310666289869256</v>
+        <v>0.01878779571703936</v>
       </c>
       <c r="Q33">
-        <v>16.576571442</v>
+        <v>14.49496820258</v>
       </c>
       <c r="R33">
-        <v>149.189142978</v>
+        <v>130.45471382322</v>
       </c>
       <c r="S33">
-        <v>0.001559537407564759</v>
+        <v>0.002603629971439368</v>
       </c>
       <c r="T33">
-        <v>0.002102283423579786</v>
+        <v>0.00380118177833925</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H34">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I34">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J34">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.47385333333333</v>
+        <v>19.69434466666667</v>
       </c>
       <c r="N34">
-        <v>52.42156</v>
+        <v>59.083034</v>
       </c>
       <c r="O34">
-        <v>0.07363289529717673</v>
+        <v>0.155581672840238</v>
       </c>
       <c r="P34">
-        <v>0.08842311009314771</v>
+        <v>0.20110075566502</v>
       </c>
       <c r="Q34">
-        <v>157.427186836</v>
+        <v>155.1512004271793</v>
       </c>
       <c r="R34">
-        <v>1416.844681524</v>
+        <v>1396.360803844614</v>
       </c>
       <c r="S34">
-        <v>0.01481087857627612</v>
+        <v>0.0278687272639273</v>
       </c>
       <c r="T34">
-        <v>0.0199653207217252</v>
+        <v>0.04068707897174153</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H35">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I35">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J35">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.433024</v>
+        <v>6.320253</v>
       </c>
       <c r="N35">
-        <v>8.866047999999999</v>
+        <v>12.640506</v>
       </c>
       <c r="O35">
-        <v>0.01868027537001216</v>
+        <v>0.04992882734391395</v>
       </c>
       <c r="P35">
-        <v>0.01495498299545324</v>
+        <v>0.04302445450902571</v>
       </c>
       <c r="Q35">
-        <v>39.9384431232</v>
+        <v>49.790681363121</v>
       </c>
       <c r="R35">
-        <v>239.6306587392</v>
+        <v>298.744088178726</v>
       </c>
       <c r="S35">
-        <v>0.003757441414737631</v>
+        <v>0.00894355258208397</v>
       </c>
       <c r="T35">
-        <v>0.003376730716411533</v>
+        <v>0.008704787669921837</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H36">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I36">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J36">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>73.56844233333334</v>
+        <v>6.942085</v>
       </c>
       <c r="N36">
-        <v>220.705327</v>
+        <v>20.826255</v>
       </c>
       <c r="O36">
-        <v>0.3100093212510302</v>
+        <v>0.05484118489746769</v>
       </c>
       <c r="P36">
-        <v>0.3722791047703496</v>
+        <v>0.07088626522078065</v>
       </c>
       <c r="Q36">
-        <v>662.8001675137</v>
+        <v>54.68944712034499</v>
       </c>
       <c r="R36">
-        <v>5965.2015076233</v>
+        <v>492.205024083105</v>
       </c>
       <c r="S36">
-        <v>0.06235678219675866</v>
+        <v>0.009823483684402569</v>
       </c>
       <c r="T36">
-        <v>0.08405802190068809</v>
+        <v>0.014341841041383</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.0093</v>
+        <v>7.877956999999999</v>
       </c>
       <c r="H37">
-        <v>27.0279</v>
+        <v>23.633871</v>
       </c>
       <c r="I37">
-        <v>0.2011448621774351</v>
+        <v>0.1791260291470502</v>
       </c>
       <c r="J37">
-        <v>0.2257930161096244</v>
+        <v>0.2023218601899006</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.34600966666667</v>
+        <v>12.151304</v>
       </c>
       <c r="N37">
-        <v>76.03802900000001</v>
+        <v>36.453912</v>
       </c>
       <c r="O37">
-        <v>0.1068052959118479</v>
+        <v>0.09599304955346108</v>
       </c>
       <c r="P37">
-        <v>0.1282586594052706</v>
+        <v>0.124078077137104</v>
       </c>
       <c r="Q37">
-        <v>228.3498048899</v>
+        <v>95.72745040592801</v>
       </c>
       <c r="R37">
-        <v>2055.1482440091</v>
+        <v>861.547053653352</v>
       </c>
       <c r="S37">
-        <v>0.02148333652600882</v>
+        <v>0.01719485379222751</v>
       </c>
       <c r="T37">
-        <v>0.02895990954929311</v>
+        <v>0.02510370737516486</v>
       </c>
     </row>
   </sheetData>
